--- a/Evaluation/rocket_two_tailed_t-tests.xlsx
+++ b/Evaluation/rocket_two_tailed_t-tests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redma\Documents\GitHub\ExerciseClassification\t-test accuracy results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redma\Documents\GitHub\ExerciseClassification\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B0B064-D84B-46BC-B2E8-34709CFE5C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E2D013-F384-444B-8173-BB54286E086F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rocket vs AdaBoost" sheetId="2" r:id="rId1"/>
@@ -124,64 +124,64 @@
     <t>Time Series Forest</t>
   </si>
   <si>
-    <t>H0: there is no difference in mean accuracry between Rocket and AdaBoost on gym movements</t>
-  </si>
-  <si>
-    <t>H1: there is a difference in mean accuracry between Rocket and AdaBoost on gym movements</t>
-  </si>
-  <si>
-    <t>H0: there is no difference in mean accuracry between Rocket and Boss Ensemble on gym movements</t>
-  </si>
-  <si>
-    <t>H1: there is a difference in mean accuracry between Rocket and Boss Ensemble on gym movements</t>
-  </si>
-  <si>
     <t xml:space="preserve">Based off the evidence of this test we cannot reject the null hypothesis </t>
   </si>
   <si>
     <t xml:space="preserve">Based off the evidence of this test we can reject the null hypothesis </t>
   </si>
   <si>
-    <t>H0: there is no difference in mean accuracry between Rocket and Decision Tree on gym movements</t>
-  </si>
-  <si>
-    <t>H1: there is a difference in mean accuracry between Rocket and Decision Tree on gym movements</t>
-  </si>
-  <si>
-    <t>H0: there is no difference in mean accuracry between Rocket and kNN-ED on gym movements</t>
-  </si>
-  <si>
-    <t>H1: there is a difference in mean accuracry between Rocket and kNN-ED on gym movements</t>
-  </si>
-  <si>
-    <t>H0: there is no difference in mean accuracry between Rocket and kNN-DTW on gym movements</t>
-  </si>
-  <si>
-    <t>H1: there is a difference in mean accuracry between Rocket and kNN-DTW on gym movements</t>
-  </si>
-  <si>
-    <t>H0: there is no difference in mean accuracry between Rocket and MLP on gym movements</t>
-  </si>
-  <si>
-    <t>H1: there is a difference in mean accuracry between Rocket and MLP on gym movements</t>
-  </si>
-  <si>
-    <t>H0: there is no difference in mean accuracry between Rocket and Naïve Bayes on gym movements</t>
-  </si>
-  <si>
-    <t>H1: there is a difference in mean accuracry between Rocket and Naïve Bayes on gym movements</t>
-  </si>
-  <si>
-    <t>H0: there is no difference in mean accuracry between Rocket and Random Forest on gym movements</t>
-  </si>
-  <si>
-    <t>H1: there is a difference in mean accuracry between Rocket and Random Forest on gym movements</t>
-  </si>
-  <si>
-    <t>H0: there is no difference in mean accuracry between Rocket and Time Series Forest on gym movements</t>
-  </si>
-  <si>
-    <t>H1: there is a difference in mean accuracry between Rocket and Time Series Forest on gym movements</t>
+    <t>H0: there is no difference in mean accuracy between Rocket and Time Series Forest on gym movements</t>
+  </si>
+  <si>
+    <t>H1: there is a difference in mean accuracy between Rocket and Time Series Forest on gym movements</t>
+  </si>
+  <si>
+    <t>H0: there is no difference in mean accuracy between Rocket and Random Forest on gym movements</t>
+  </si>
+  <si>
+    <t>H1: there is a difference in mean accuracy between Rocket and Random Forest on gym movements</t>
+  </si>
+  <si>
+    <t>H0: there is no difference in mean accuracy between Rocket and Naïve Bayes on gym movements</t>
+  </si>
+  <si>
+    <t>H1: there is a difference in mean accuracy between Rocket and Naïve Bayes on gym movements</t>
+  </si>
+  <si>
+    <t>H0: there is no difference in mean accuracy between Rocket and MLP on gym movements</t>
+  </si>
+  <si>
+    <t>H1: there is a difference in mean accuracy between Rocket and MLP on gym movements</t>
+  </si>
+  <si>
+    <t>H0: there is no difference in mean accuracy between Rocket and kNN-DTW on gym movements</t>
+  </si>
+  <si>
+    <t>H1: there is a difference in mean accuracy between Rocket and kNN-DTW on gym movements</t>
+  </si>
+  <si>
+    <t>H0: there is no difference in mean accuracy between Rocket and kNN-ED on gym movements</t>
+  </si>
+  <si>
+    <t>H1: there is a difference in mean accuracy between Rocket and kNN-ED on gym movements</t>
+  </si>
+  <si>
+    <t>H0: there is no difference in mean accuracy between Rocket and Decision Tree on gym movements</t>
+  </si>
+  <si>
+    <t>H1: there is a difference in mean accuracy between Rocket and Decision Tree on gym movements</t>
+  </si>
+  <si>
+    <t>H0: there is no difference in mean accuracy between Rocket and Boss Ensemble on gym movements</t>
+  </si>
+  <si>
+    <t>H1: there is a difference in mean accuracy between Rocket and Boss Ensemble on gym movements</t>
+  </si>
+  <si>
+    <t>H0: there is no difference in mean accuracy between Rocket and AdaBoost on gym movements</t>
+  </si>
+  <si>
+    <t>H1: there is a difference in mean accuracy between Rocket and AdaBoost on gym movements</t>
   </si>
 </sst>
 </file>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181FC21C-74BD-47D5-A002-640CBAB53DA8}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="A17:H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -908,7 +908,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -920,7 +920,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -932,7 +932,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -956,7 +956,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="A17:H20"/>
+      <selection activeCell="A18" sqref="A18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -1300,7 +1300,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="A17:H20"/>
+      <selection activeCell="A18" sqref="A18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -1644,7 +1644,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="A17:H20"/>
+      <selection activeCell="A18" sqref="A18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1941,7 +1941,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -1991,7 +1991,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:H20"/>
+      <selection activeCell="A18" sqref="A18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -2354,7 +2354,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="A17:H20"/>
+      <selection activeCell="A18" sqref="A18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2661,7 +2661,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -2673,7 +2673,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -2685,7 +2685,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -2708,7 +2708,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="A17:H20"/>
+      <selection activeCell="A18" sqref="A18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3006,7 +3006,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -3018,7 +3018,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -3030,7 +3030,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -3053,7 +3053,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="A17:H20"/>
+      <selection activeCell="A18" sqref="A18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3350,7 +3350,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -3362,7 +3362,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -3374,7 +3374,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -3396,8 +3396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F920CD64-38D7-4C34-AE1D-7F46FDF00FF8}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -3707,7 +3707,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>

--- a/Evaluation/rocket_two_tailed_t-tests.xlsx
+++ b/Evaluation/rocket_two_tailed_t-tests.xlsx
@@ -5,23 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redma\Documents\GitHub\ExerciseClassification\Evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Github\ExerciseClassification\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E2D013-F384-444B-8173-BB54286E086F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8400165-2BF0-4A81-B415-199226EFEC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Rocket vs AdaBoost" sheetId="2" r:id="rId1"/>
-    <sheet name="Rocket vs Boss Ensemble" sheetId="3" r:id="rId2"/>
-    <sheet name="Rocket vs Decision Tree" sheetId="4" r:id="rId3"/>
-    <sheet name="Rocket vs kNN-ED" sheetId="5" r:id="rId4"/>
-    <sheet name="Rocket vs kNN-DTW" sheetId="1" r:id="rId5"/>
-    <sheet name="Rocket vs MLP" sheetId="6" r:id="rId6"/>
-    <sheet name="Rocket vs Naive Bayes" sheetId="7" r:id="rId7"/>
-    <sheet name="Rocket vs Random Forest" sheetId="8" r:id="rId8"/>
-    <sheet name="Rocket vs Time Series Forest" sheetId="9" r:id="rId9"/>
+    <sheet name="T test comparison" sheetId="10" r:id="rId1"/>
+    <sheet name="Rocket vs AdaBoost" sheetId="2" r:id="rId2"/>
+    <sheet name="Rocket vs Boss Ensemble" sheetId="3" r:id="rId3"/>
+    <sheet name="Rocket vs Decision Tree" sheetId="4" r:id="rId4"/>
+    <sheet name="Rocket vs kNN-ED" sheetId="5" r:id="rId5"/>
+    <sheet name="Rocket vs kNN-DTW" sheetId="1" r:id="rId6"/>
+    <sheet name="Rocket vs MLP" sheetId="6" r:id="rId7"/>
+    <sheet name="Rocket vs Naive Bayes" sheetId="7" r:id="rId8"/>
+    <sheet name="Rocket vs Random Forest" sheetId="8" r:id="rId9"/>
+    <sheet name="Rocket vs Time Series Forest" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="53">
   <si>
     <t>Rocket</t>
   </si>
@@ -182,6 +183,24 @@
   </si>
   <si>
     <t>H1: there is a difference in mean accuracy between Rocket and AdaBoost on gym movements</t>
+  </si>
+  <si>
+    <t>Boss Enemble</t>
+  </si>
+  <si>
+    <t>k-NN ED</t>
+  </si>
+  <si>
+    <t>k-NN DTW</t>
+  </si>
+  <si>
+    <t>Mean  Difference</t>
+  </si>
+  <si>
+    <t>Criticial Difference</t>
+  </si>
+  <si>
+    <t>Mean Standard Deviation</t>
   </si>
 </sst>
 </file>
@@ -285,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -303,6 +322,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -607,27 +627,220 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181FC21C-74BD-47D5-A002-640CBAB53DA8}">
-  <dimension ref="A1:J20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C822FA83-3AE2-40C7-9358-6B2C29C179E4}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.80000000000000071</v>
+      </c>
+      <c r="C2" s="7">
+        <v>7.3842229768062734E-2</v>
+      </c>
+      <c r="D2" s="15">
+        <v>34.259828503023769</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2.262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="15">
+        <v>1.3888888888889006E-2</v>
+      </c>
+      <c r="C3" s="15">
+        <v>2.3606571822189018E-2</v>
+      </c>
+      <c r="D3" s="15">
+        <v>1.8605210188381269</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2.262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="15">
+        <v>0.55833333333333379</v>
+      </c>
+      <c r="C4" s="15">
+        <v>8.1196893586643323E-2</v>
+      </c>
+      <c r="D4" s="15">
+        <v>21.74473614613483</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2.262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="15">
+        <v>0.13333333333333389</v>
+      </c>
+      <c r="C5" s="15">
+        <v>4.8644168653939737E-2</v>
+      </c>
+      <c r="D5" s="15">
+        <v>8.6677814221753984</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2.262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="15">
+        <v>1.3888888888889006E-2</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1.9641855032959819E-2</v>
+      </c>
+      <c r="D6" s="15">
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2.262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="15">
+        <v>0.28611111111111159</v>
+      </c>
+      <c r="C7" s="15">
+        <v>5.7152960600040797E-2</v>
+      </c>
+      <c r="D7" s="15">
+        <v>15.83054955497748</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2.262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="15">
+        <v>0.23055555555555601</v>
+      </c>
+      <c r="C8" s="15">
+        <v>6.8104353883086291E-2</v>
+      </c>
+      <c r="D8" s="15">
+        <v>10.705346151769477</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2.262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="15">
+        <v>0.16944444444444479</v>
+      </c>
+      <c r="C9" s="15">
+        <v>4.6203610925461755E-2</v>
+      </c>
+      <c r="D9" s="15">
+        <v>11.597153784597946</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2.262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="15">
+        <v>5.0000000000000419E-2</v>
+      </c>
+      <c r="C10" s="15">
+        <v>3.6571143811354935E-2</v>
+      </c>
+      <c r="D10" s="15">
+        <v>4.3234601527373524</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2.262</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F920CD64-38D7-4C34-AE1D-7F46FDF00FF8}">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>2</v>
@@ -638,19 +851,19 @@
       </c>
       <c r="F1" s="7">
         <f>SUM(C2:C11)/10</f>
-        <v>0.80000000000000071</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>5.0000000000000419E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>0.13888888888888801</v>
+        <v>0.94444444444444398</v>
       </c>
       <c r="C2" s="6">
         <f>A2-B2</f>
-        <v>0.86111111111111205</v>
+        <v>5.5555555555556024E-2</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="14" t="s">
@@ -658,22 +871,22 @@
       </c>
       <c r="F2" s="7">
         <f>STDEV(C2:C11)</f>
-        <v>7.3842229768062734E-2</v>
+        <v>3.6571143811354935E-2</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>0.13888888888888801</v>
+        <v>0.91666666666666596</v>
       </c>
       <c r="C3" s="6">
         <f t="shared" ref="C3:C11" si="0">A3-B3</f>
-        <v>0.86111111111111205</v>
+        <v>8.3333333333334036E-2</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="14" t="s">
@@ -681,19 +894,19 @@
       </c>
       <c r="F3" s="6">
         <f xml:space="preserve"> F1/(F2/SQRT(10))</f>
-        <v>34.259828503023769</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>4.3234601527373524</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" s="6">
-        <v>0.194444444444444</v>
+        <v>0.94444444444444398</v>
       </c>
       <c r="C4" s="6">
         <f t="shared" si="0"/>
-        <v>0.80555555555555602</v>
+        <v>5.5555555555556024E-2</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="14" t="s">
@@ -707,19 +920,19 @@
         <v>0</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1</v>
       </c>
       <c r="B5" s="6">
-        <v>0.36111111111111099</v>
+        <v>1</v>
       </c>
       <c r="C5" s="6">
         <f t="shared" si="0"/>
-        <v>0.63888888888888906</v>
+        <v>0</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2"/>
@@ -731,19 +944,19 @@
         <v>0.99166666666666659</v>
       </c>
       <c r="J5" s="8">
-        <v>0.19166666666666604</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.9416666666666661</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>0.97222222222222199</v>
       </c>
       <c r="B6" s="6">
-        <v>0.16666666666666599</v>
+        <v>0.94444444444444398</v>
       </c>
       <c r="C6" s="6">
         <f t="shared" si="0"/>
-        <v>0.80555555555555602</v>
+        <v>2.7777777777778012E-2</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>
@@ -755,19 +968,19 @@
         <v>1.800411522633775E-4</v>
       </c>
       <c r="J6" s="8">
-        <v>5.2211934156378764E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1.6203703703703979E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>0.97222222222222199</v>
       </c>
       <c r="B7" s="6">
-        <v>0.13888888888888801</v>
+        <v>0.91666666666666596</v>
       </c>
       <c r="C7" s="6">
         <f t="shared" si="0"/>
-        <v>0.83333333333333393</v>
+        <v>5.5555555555556024E-2</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2"/>
@@ -782,16 +995,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>1</v>
       </c>
       <c r="B8" s="6">
-        <v>0.16666666666666599</v>
+        <v>1</v>
       </c>
       <c r="C8" s="6">
         <f t="shared" si="0"/>
-        <v>0.83333333333333404</v>
+        <v>0</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
@@ -800,20 +1013,20 @@
         <v>12</v>
       </c>
       <c r="I8" s="8">
-        <v>-2.6527905453863434E-2</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
       <c r="B9" s="6">
-        <v>0.16666666666666599</v>
+        <v>0.88888888888888795</v>
       </c>
       <c r="C9" s="6">
         <f t="shared" si="0"/>
-        <v>0.83333333333333404</v>
+        <v>0.11111111111111205</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2"/>
@@ -826,16 +1039,16 @@
       </c>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>1</v>
       </c>
       <c r="B10" s="6">
-        <v>0.16666666666666599</v>
+        <v>0.97222222222222199</v>
       </c>
       <c r="C10" s="6">
         <f t="shared" si="0"/>
-        <v>0.83333333333333404</v>
+        <v>2.7777777777778012E-2</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2"/>
@@ -848,16 +1061,16 @@
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>0.97222222222222199</v>
       </c>
       <c r="B11" s="6">
-        <v>0.27777777777777701</v>
+        <v>0.88888888888888795</v>
       </c>
       <c r="C11" s="6">
         <f t="shared" si="0"/>
-        <v>0.69444444444444497</v>
+        <v>8.3333333333334036E-2</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
@@ -866,20 +1079,20 @@
         <v>14</v>
       </c>
       <c r="I11" s="8">
-        <v>34.259828503024174</v>
+        <v>4.3234601527373524</v>
       </c>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="8">
-        <v>3.7949171766232803E-11</v>
+        <v>9.6170586141448324E-4</v>
       </c>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H13" s="8" t="s">
         <v>16</v>
       </c>
@@ -888,16 +1101,16 @@
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H14" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I14" s="8">
-        <v>7.5898343532465606E-11</v>
+        <v>1.9234117228289665E-3</v>
       </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H15" s="9" t="s">
         <v>18</v>
       </c>
@@ -906,39 +1119,383 @@
       </c>
       <c r="J15" s="9"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A20:F20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181FC21C-74BD-47D5-A002-640CBAB53DA8}">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7">
+        <f>SUM(C2:C11)/10</f>
+        <v>0.80000000000000071</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.13888888888888801</v>
+      </c>
+      <c r="C2" s="6">
+        <f>A2-B2</f>
+        <v>0.86111111111111205</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="7">
+        <f>STDEV(C2:C11)</f>
+        <v>7.3842229768062734E-2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.13888888888888801</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" ref="C3:C11" si="0">A3-B3</f>
+        <v>0.86111111111111205</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6">
+        <f xml:space="preserve"> F1/(F2/SQRT(10))</f>
+        <v>34.259828503023769</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.194444444444444</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.80555555555555602</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2.262</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.36111111111111099</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.63888888888888906</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="H5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0.99166666666666659</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0.19166666666666604</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>0.97222222222222199</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.16666666666666599</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.80555555555555602</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="H6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1.800411522633775E-4</v>
+      </c>
+      <c r="J6" s="8">
+        <v>5.2211934156378764E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>0.97222222222222199</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.13888888888888801</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333393</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="H7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="8">
+        <v>10</v>
+      </c>
+      <c r="J7" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.16666666666666599</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333404</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="H8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="8">
+        <v>-2.6527905453863434E-2</v>
+      </c>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.16666666666666599</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333404</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="H9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.16666666666666599</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333404</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="H10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="8">
+        <v>9</v>
+      </c>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>0.97222222222222199</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.27777777777777701</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.69444444444444497</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="H11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="8">
+        <v>34.259828503024174</v>
+      </c>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="8">
+        <v>3.7949171766232803E-11</v>
+      </c>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1.8331129326562374</v>
+      </c>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="8">
+        <v>7.5898343532465606E-11</v>
+      </c>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="9">
+        <v>2.2621571627982053</v>
+      </c>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -951,23 +1508,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92284911-FCE9-44E5-9B43-052B0FBAF35E}">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:H18"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -986,7 +1543,7 @@
         <v>1.3888888888889006E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1009,7 +1566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -1029,7 +1586,7 @@
         <v>1.8605210188381269</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -1055,7 +1612,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -1079,7 +1636,7 @@
         <v>0.97777777777777752</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>0.97222222222222199</v>
       </c>
@@ -1103,7 +1660,7 @@
         <v>4.8010973936900677E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>0.97222222222222199</v>
       </c>
@@ -1127,7 +1684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -1149,7 +1706,7 @@
       </c>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -1171,7 +1728,7 @@
       </c>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>1</v>
       </c>
@@ -1193,7 +1750,7 @@
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>0.97222222222222199</v>
       </c>
@@ -1215,7 +1772,7 @@
       </c>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H12" s="8" t="s">
         <v>15</v>
       </c>
@@ -1224,7 +1781,7 @@
       </c>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H13" s="8" t="s">
         <v>16</v>
       </c>
@@ -1233,7 +1790,7 @@
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H14" s="8" t="s">
         <v>17</v>
       </c>
@@ -1242,7 +1799,7 @@
       </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H15" s="9" t="s">
         <v>18</v>
       </c>
@@ -1251,383 +1808,39 @@
       </c>
       <c r="J15" s="9"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A20:F20"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C0E2C9-E4E1-4688-B2FF-976D27B553B5}">
-  <dimension ref="A1:J20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:H18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="7">
-        <f>SUM(C2:C11)/10</f>
-        <v>0.55833333333333379</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>0.44444444444444398</v>
-      </c>
-      <c r="C2" s="6">
-        <f>A2-B2</f>
-        <v>0.55555555555555602</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="7">
-        <f>STDEV(C2:C11)</f>
-        <v>8.1196893586643323E-2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="C3" s="6">
-        <f t="shared" ref="C3:C11" si="0">A3-B3</f>
-        <v>0.5</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="6">
-        <f xml:space="preserve"> F1/(F2/SQRT(10))</f>
-        <v>21.74473614613483</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0.44444444444444398</v>
-      </c>
-      <c r="C4" s="6">
-        <f t="shared" si="0"/>
-        <v>0.55555555555555602</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="5">
-        <v>2.262</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0.44444444444444398</v>
-      </c>
-      <c r="C5" s="6">
-        <f t="shared" si="0"/>
-        <v>0.55555555555555602</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="H5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0.99166666666666659</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0.43333333333333285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>0.97222222222222199</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0.47222222222222199</v>
-      </c>
-      <c r="C6" s="6">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="H6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="8">
-        <v>1.800411522633775E-4</v>
-      </c>
-      <c r="J6" s="8">
-        <v>5.5212620027434616E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>0.97222222222222199</v>
-      </c>
-      <c r="B7" s="6">
-        <v>0.41666666666666602</v>
-      </c>
-      <c r="C7" s="6">
-        <f t="shared" si="0"/>
-        <v>0.55555555555555602</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="H7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="8">
-        <v>10</v>
-      </c>
-      <c r="J7" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="6">
-        <v>0.38888888888888801</v>
-      </c>
-      <c r="C8" s="6">
-        <f t="shared" si="0"/>
-        <v>0.61111111111111205</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="H8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="8">
-        <v>-0.44714745431857089</v>
-      </c>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>1</v>
-      </c>
-      <c r="B9" s="6">
-        <v>0.38888888888888801</v>
-      </c>
-      <c r="C9" s="6">
-        <f t="shared" si="0"/>
-        <v>0.61111111111111205</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="H9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>1</v>
-      </c>
-      <c r="B10" s="6">
-        <v>0.27777777777777701</v>
-      </c>
-      <c r="C10" s="6">
-        <f t="shared" si="0"/>
-        <v>0.72222222222222299</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="H10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="8">
-        <v>9</v>
-      </c>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>0.97222222222222199</v>
-      </c>
-      <c r="B11" s="6">
-        <v>0.55555555555555503</v>
-      </c>
-      <c r="C11" s="6">
-        <f t="shared" si="0"/>
-        <v>0.41666666666666696</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="H11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="8">
-        <v>21.744736146134752</v>
-      </c>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="8">
-        <v>2.1684513706856144E-9</v>
-      </c>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="8">
-        <v>1.8331129326562374</v>
-      </c>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="8">
-        <v>4.3369027413712289E-9</v>
-      </c>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="9">
-        <v>2.2621571627982053</v>
-      </c>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1640,27 +1853,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE44B29-F965-4C4A-9712-4206BA7CEE4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C0E2C9-E4E1-4688-B2FF-976D27B553B5}">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:H18"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>2</v>
@@ -1671,19 +1884,19 @@
       </c>
       <c r="F1" s="7">
         <f>SUM(C2:C11)/10</f>
-        <v>0.13333333333333389</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.55833333333333379</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>0.80555555555555503</v>
+        <v>0.44444444444444398</v>
       </c>
       <c r="C2" s="6">
         <f>A2-B2</f>
-        <v>0.19444444444444497</v>
+        <v>0.55555555555555602</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="14" t="s">
@@ -1691,22 +1904,22 @@
       </c>
       <c r="F2" s="7">
         <f>STDEV(C2:C11)</f>
-        <v>4.8644168653939737E-2</v>
+        <v>8.1196893586643323E-2</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>0.88888888888888795</v>
+        <v>0.5</v>
       </c>
       <c r="C3" s="6">
         <f t="shared" ref="C3:C11" si="0">A3-B3</f>
-        <v>0.11111111111111205</v>
+        <v>0.5</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="14" t="s">
@@ -1714,19 +1927,19 @@
       </c>
       <c r="F3" s="6">
         <f xml:space="preserve"> F1/(F2/SQRT(10))</f>
-        <v>8.6677814221753984</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>21.74473614613483</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" s="6">
-        <v>0.77777777777777701</v>
+        <v>0.44444444444444398</v>
       </c>
       <c r="C4" s="6">
         <f t="shared" si="0"/>
-        <v>0.22222222222222299</v>
+        <v>0.55555555555555602</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="14" t="s">
@@ -1740,19 +1953,19 @@
         <v>0</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1</v>
       </c>
       <c r="B5" s="6">
-        <v>0.94444444444444398</v>
+        <v>0.44444444444444398</v>
       </c>
       <c r="C5" s="6">
         <f t="shared" si="0"/>
-        <v>5.5555555555556024E-2</v>
+        <v>0.55555555555555602</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2"/>
@@ -1764,19 +1977,19 @@
         <v>0.99166666666666659</v>
       </c>
       <c r="J5" s="8">
-        <v>0.8583333333333325</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.43333333333333285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>0.97222222222222199</v>
       </c>
       <c r="B6" s="6">
-        <v>0.86111111111111105</v>
+        <v>0.47222222222222199</v>
       </c>
       <c r="C6" s="6">
         <f t="shared" si="0"/>
-        <v>0.11111111111111094</v>
+        <v>0.5</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>
@@ -1788,19 +2001,19 @@
         <v>1.800411522633775E-4</v>
       </c>
       <c r="J6" s="8">
-        <v>2.6491769547325032E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>5.5212620027434616E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>0.97222222222222199</v>
       </c>
       <c r="B7" s="6">
-        <v>0.80555555555555503</v>
+        <v>0.41666666666666602</v>
       </c>
       <c r="C7" s="6">
         <f t="shared" si="0"/>
-        <v>0.16666666666666696</v>
+        <v>0.55555555555555602</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2"/>
@@ -1815,16 +2028,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>1</v>
       </c>
       <c r="B8" s="6">
-        <v>0.88888888888888795</v>
+        <v>0.38888888888888801</v>
       </c>
       <c r="C8" s="6">
         <f t="shared" si="0"/>
-        <v>0.11111111111111205</v>
+        <v>0.61111111111111205</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
@@ -1833,20 +2046,20 @@
         <v>12</v>
       </c>
       <c r="I8" s="8">
-        <v>0.33517751522573219</v>
+        <v>-0.44714745431857089</v>
       </c>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
       <c r="B9" s="6">
-        <v>0.88888888888888795</v>
+        <v>0.38888888888888801</v>
       </c>
       <c r="C9" s="6">
         <f t="shared" si="0"/>
-        <v>0.11111111111111205</v>
+        <v>0.61111111111111205</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2"/>
@@ -1859,16 +2072,16 @@
       </c>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>1</v>
       </c>
       <c r="B10" s="6">
-        <v>0.88888888888888795</v>
+        <v>0.27777777777777701</v>
       </c>
       <c r="C10" s="6">
         <f t="shared" si="0"/>
-        <v>0.11111111111111205</v>
+        <v>0.72222222222222299</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2"/>
@@ -1881,16 +2094,16 @@
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>0.97222222222222199</v>
       </c>
       <c r="B11" s="6">
-        <v>0.83333333333333304</v>
+        <v>0.55555555555555503</v>
       </c>
       <c r="C11" s="6">
         <f t="shared" si="0"/>
-        <v>0.13888888888888895</v>
+        <v>0.41666666666666696</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
@@ -1899,20 +2112,20 @@
         <v>14</v>
       </c>
       <c r="I11" s="8">
-        <v>8.6677814221754037</v>
+        <v>21.744736146134752</v>
       </c>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="8">
-        <v>5.8008550128914129E-6</v>
+        <v>2.1684513706856144E-9</v>
       </c>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H13" s="8" t="s">
         <v>16</v>
       </c>
@@ -1921,16 +2134,16 @@
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H14" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I14" s="8">
-        <v>1.1601710025782826E-5</v>
+        <v>4.3369027413712289E-9</v>
       </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H15" s="9" t="s">
         <v>18</v>
       </c>
@@ -1939,39 +2152,39 @@
       </c>
       <c r="J15" s="9"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1984,58 +2197,50 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE44B29-F965-4C4A-9712-4206BA7CEE4F}">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:H18"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="25.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2"/>
       <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="7">
         <f>SUM(C2:C11)/10</f>
-        <v>1.3888888888889006E-2</v>
-      </c>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.13333333333333389</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>1</v>
+        <v>0.80555555555555503</v>
       </c>
       <c r="C2" s="6">
         <f>A2-B2</f>
-        <v>0</v>
+        <v>0.19444444444444497</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="14" t="s">
@@ -2043,23 +2248,22 @@
       </c>
       <c r="F2" s="7">
         <f>STDEV(C2:C11)</f>
-        <v>1.9641855032959819E-2</v>
-      </c>
-      <c r="G2" s="4"/>
+        <v>4.8644168653939737E-2</v>
+      </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>1</v>
+        <v>0.88888888888888795</v>
       </c>
       <c r="C3" s="6">
         <f t="shared" ref="C3:C11" si="0">A3-B3</f>
-        <v>0</v>
+        <v>0.11111111111111205</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="14" t="s">
@@ -2067,19 +2271,19 @@
       </c>
       <c r="F3" s="6">
         <f xml:space="preserve"> F1/(F2/SQRT(10))</f>
-        <v>2.2360679774997898</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>8.6677814221753984</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" s="6">
-        <v>0.94444444444444398</v>
+        <v>0.77777777777777701</v>
       </c>
       <c r="C4" s="6">
         <f t="shared" si="0"/>
-        <v>5.5555555555556024E-2</v>
+        <v>0.22222222222222299</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="14" t="s">
@@ -2093,23 +2297,23 @@
         <v>0</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1</v>
       </c>
       <c r="B5" s="6">
-        <v>1</v>
+        <v>0.94444444444444398</v>
       </c>
       <c r="C5" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.5555555555556024E-2</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
       <c r="H5" s="8" t="s">
         <v>5</v>
       </c>
@@ -2117,23 +2321,23 @@
         <v>0.99166666666666659</v>
       </c>
       <c r="J5" s="8">
-        <v>0.97777777777777752</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.8583333333333325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>0.97222222222222199</v>
       </c>
       <c r="B6" s="6">
-        <v>0.94444444444444398</v>
+        <v>0.86111111111111105</v>
       </c>
       <c r="C6" s="6">
         <f t="shared" si="0"/>
-        <v>2.7777777777778012E-2</v>
+        <v>0.11111111111111094</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
       <c r="H6" s="8" t="s">
         <v>6</v>
       </c>
@@ -2141,23 +2345,23 @@
         <v>1.800411522633775E-4</v>
       </c>
       <c r="J6" s="8">
-        <v>6.5157750342936631E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2.6491769547325032E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>0.97222222222222199</v>
       </c>
       <c r="B7" s="6">
-        <v>0.94444444444444398</v>
+        <v>0.80555555555555503</v>
       </c>
       <c r="C7" s="6">
         <f t="shared" si="0"/>
-        <v>2.7777777777778012E-2</v>
+        <v>0.16666666666666696</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
       <c r="H7" s="8" t="s">
         <v>7</v>
       </c>
@@ -2168,40 +2372,42 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>1</v>
       </c>
       <c r="B8" s="6">
-        <v>1</v>
+        <v>0.88888888888888795</v>
       </c>
       <c r="C8" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.11111111111111205</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
       <c r="H8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="I8" s="8">
-        <v>0.65081402661828636</v>
+        <v>0.33517751522573219</v>
       </c>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
       <c r="B9" s="6">
-        <v>1</v>
+        <v>0.88888888888888795</v>
       </c>
       <c r="C9" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.11111111111111205</v>
       </c>
       <c r="D9" s="3"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
       <c r="H9" s="8" t="s">
         <v>13</v>
       </c>
@@ -2210,18 +2416,20 @@
       </c>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>1</v>
       </c>
       <c r="B10" s="6">
-        <v>0.97222222222222199</v>
+        <v>0.88888888888888795</v>
       </c>
       <c r="C10" s="6">
         <f t="shared" si="0"/>
-        <v>2.7777777777778012E-2</v>
+        <v>0.11111111111111205</v>
       </c>
       <c r="D10" s="3"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
       <c r="H10" s="8" t="s">
         <v>8</v>
       </c>
@@ -2230,36 +2438,38 @@
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>0.97222222222222199</v>
       </c>
       <c r="B11" s="6">
-        <v>0.97222222222222199</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="C11" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.13888888888888895</v>
       </c>
       <c r="D11" s="3"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
       <c r="H11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I11" s="8">
-        <v>2.2360679774997898</v>
+        <v>8.6677814221754037</v>
       </c>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="8">
-        <v>2.6088621399409536E-2</v>
+        <v>5.8008550128914129E-6</v>
       </c>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H13" s="8" t="s">
         <v>16</v>
       </c>
@@ -2268,16 +2478,16 @@
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H14" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I14" s="8">
-        <v>5.2177242798819072E-2</v>
+        <v>1.1601710025782826E-5</v>
       </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H15" s="9" t="s">
         <v>18</v>
       </c>
@@ -2286,58 +2496,39 @@
       </c>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2350,48 +2541,58 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52310191-8F49-410A-9D3A-8D0D1377F310}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:H18"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="8" max="8" width="25.33203125" customWidth="1"/>
+    <col min="1" max="2" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
       <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="7">
         <f>SUM(C2:C11)/10</f>
-        <v>0.28611111111111159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1.3888888888889006E-2</v>
+      </c>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>0.66666666666666596</v>
+        <v>1</v>
       </c>
       <c r="C2" s="6">
         <f>A2-B2</f>
-        <v>0.33333333333333404</v>
+        <v>0</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="14" t="s">
@@ -2399,22 +2600,23 @@
       </c>
       <c r="F2" s="7">
         <f>STDEV(C2:C11)</f>
-        <v>5.7152960600040797E-2</v>
-      </c>
+        <v>1.9641855032959819E-2</v>
+      </c>
+      <c r="G2" s="4"/>
       <c r="H2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>0.77777777777777701</v>
+        <v>1</v>
       </c>
       <c r="C3" s="6">
         <f t="shared" ref="C3:C11" si="0">A3-B3</f>
-        <v>0.22222222222222299</v>
+        <v>0</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="14" t="s">
@@ -2422,19 +2624,19 @@
       </c>
       <c r="F3" s="6">
         <f xml:space="preserve"> F1/(F2/SQRT(10))</f>
-        <v>15.83054955497748</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.2360679774997898</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" s="6">
-        <v>0.69444444444444398</v>
+        <v>0.94444444444444398</v>
       </c>
       <c r="C4" s="6">
         <f t="shared" si="0"/>
-        <v>0.30555555555555602</v>
+        <v>5.5555555555556024E-2</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="14" t="s">
@@ -2448,23 +2650,23 @@
         <v>0</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1</v>
       </c>
       <c r="B5" s="6">
-        <v>0.63888888888888795</v>
+        <v>1</v>
       </c>
       <c r="C5" s="6">
         <f t="shared" si="0"/>
-        <v>0.36111111111111205</v>
+        <v>0</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
       <c r="H5" s="8" t="s">
         <v>5</v>
       </c>
@@ -2472,23 +2674,23 @@
         <v>0.99166666666666659</v>
       </c>
       <c r="J5" s="8">
-        <v>0.70555555555555505</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.97777777777777752</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>0.97222222222222199</v>
       </c>
       <c r="B6" s="6">
-        <v>0.69444444444444398</v>
+        <v>0.94444444444444398</v>
       </c>
       <c r="C6" s="6">
         <f t="shared" si="0"/>
-        <v>0.27777777777777801</v>
+        <v>2.7777777777778012E-2</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
       <c r="H6" s="8" t="s">
         <v>6</v>
       </c>
@@ -2496,23 +2698,23 @@
         <v>1.800411522633775E-4</v>
       </c>
       <c r="J6" s="8">
-        <v>2.9492455418381456E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>6.5157750342936631E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>0.97222222222222199</v>
       </c>
       <c r="B7" s="6">
-        <v>0.80555555555555503</v>
+        <v>0.94444444444444398</v>
       </c>
       <c r="C7" s="6">
         <f t="shared" si="0"/>
-        <v>0.16666666666666696</v>
+        <v>2.7777777777778012E-2</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
       <c r="H7" s="8" t="s">
         <v>7</v>
       </c>
@@ -2523,42 +2725,40 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>1</v>
       </c>
       <c r="B8" s="6">
-        <v>0.72222222222222199</v>
+        <v>1</v>
       </c>
       <c r="C8" s="6">
         <f t="shared" si="0"/>
-        <v>0.27777777777777801</v>
+        <v>0</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
       <c r="H8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="I8" s="8">
-        <v>-9.4124161067001277E-2</v>
+        <v>0.65081402661828636</v>
       </c>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
       <c r="B9" s="6">
-        <v>0.72222222222222199</v>
+        <v>1</v>
       </c>
       <c r="C9" s="6">
         <f t="shared" si="0"/>
-        <v>0.27777777777777801</v>
+        <v>0</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
       <c r="H9" s="8" t="s">
         <v>13</v>
       </c>
@@ -2567,20 +2767,18 @@
       </c>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>1</v>
       </c>
       <c r="B10" s="6">
-        <v>0.69444444444444398</v>
+        <v>0.97222222222222199</v>
       </c>
       <c r="C10" s="6">
         <f t="shared" si="0"/>
-        <v>0.30555555555555602</v>
+        <v>2.7777777777778012E-2</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
       <c r="H10" s="8" t="s">
         <v>8</v>
       </c>
@@ -2589,50 +2787,36 @@
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>0.97222222222222199</v>
       </c>
       <c r="B11" s="6">
-        <v>0.63888888888888795</v>
+        <v>0.97222222222222199</v>
       </c>
       <c r="C11" s="6">
         <f t="shared" si="0"/>
-        <v>0.33333333333333404</v>
+        <v>0</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
       <c r="H11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I11" s="8">
-        <v>15.83054955497745</v>
+        <v>2.2360679774997898</v>
       </c>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="8">
-        <v>3.5291927719792613E-8</v>
+        <v>2.6088621399409536E-2</v>
       </c>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H13" s="8" t="s">
         <v>16</v>
       </c>
@@ -2641,16 +2825,16 @@
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H14" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I14" s="8">
-        <v>7.0583855439585227E-8</v>
+        <v>5.2177242798819072E-2</v>
       </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H15" s="9" t="s">
         <v>18</v>
       </c>
@@ -2659,39 +2843,58 @@
       </c>
       <c r="J15" s="9"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2704,28 +2907,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7EF8C36-7090-464D-AAB3-3C1E05473A40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52310191-8F49-410A-9D3A-8D0D1377F310}">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:H18"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.21875" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="8" max="8" width="26.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>2</v>
@@ -2736,19 +2936,19 @@
       </c>
       <c r="F1" s="7">
         <f>SUM(C2:C11)/10</f>
-        <v>0.23055555555555601</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.28611111111111159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>0.69444444444444398</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="C2" s="6">
         <f>A2-B2</f>
-        <v>0.30555555555555602</v>
+        <v>0.33333333333333404</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="14" t="s">
@@ -2756,13 +2956,13 @@
       </c>
       <c r="F2" s="7">
         <f>STDEV(C2:C11)</f>
-        <v>6.8104353883086291E-2</v>
+        <v>5.7152960600040797E-2</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -2779,19 +2979,19 @@
       </c>
       <c r="F3" s="6">
         <f xml:space="preserve"> F1/(F2/SQRT(10))</f>
-        <v>10.705346151769477</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>15.83054955497748</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" s="6">
-        <v>0.72222222222222199</v>
+        <v>0.69444444444444398</v>
       </c>
       <c r="C4" s="6">
         <f t="shared" si="0"/>
-        <v>0.27777777777777801</v>
+        <v>0.30555555555555602</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="14" t="s">
@@ -2805,19 +3005,19 @@
         <v>0</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1</v>
       </c>
       <c r="B5" s="6">
-        <v>0.83333333333333304</v>
+        <v>0.63888888888888795</v>
       </c>
       <c r="C5" s="6">
         <f t="shared" si="0"/>
-        <v>0.16666666666666696</v>
+        <v>0.36111111111111205</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2"/>
@@ -2829,19 +3029,19 @@
         <v>0.99166666666666659</v>
       </c>
       <c r="J5" s="8">
-        <v>0.76111111111111052</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.70555555555555505</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>0.97222222222222199</v>
       </c>
       <c r="B6" s="6">
-        <v>0.77777777777777701</v>
+        <v>0.69444444444444398</v>
       </c>
       <c r="C6" s="6">
         <f t="shared" si="0"/>
-        <v>0.19444444444444497</v>
+        <v>0.27777777777777801</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>
@@ -2853,19 +3053,19 @@
         <v>1.800411522633775E-4</v>
       </c>
       <c r="J6" s="8">
-        <v>4.492455418381361E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.9492455418381456E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>0.97222222222222199</v>
       </c>
       <c r="B7" s="6">
-        <v>0.72222222222222199</v>
+        <v>0.80555555555555503</v>
       </c>
       <c r="C7" s="6">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.16666666666666696</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2"/>
@@ -2880,16 +3080,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>1</v>
       </c>
       <c r="B8" s="6">
-        <v>0.86111111111111105</v>
+        <v>0.72222222222222199</v>
       </c>
       <c r="C8" s="6">
         <f t="shared" si="0"/>
-        <v>0.13888888888888895</v>
+        <v>0.27777777777777801</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
@@ -2898,20 +3098,20 @@
         <v>12</v>
       </c>
       <c r="I8" s="8">
-        <v>1.9065785593520783E-2</v>
+        <v>-9.4124161067001277E-2</v>
       </c>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
       <c r="B9" s="6">
-        <v>0.80555555555555503</v>
+        <v>0.72222222222222199</v>
       </c>
       <c r="C9" s="6">
         <f t="shared" si="0"/>
-        <v>0.19444444444444497</v>
+        <v>0.27777777777777801</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2"/>
@@ -2924,16 +3124,16 @@
       </c>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>1</v>
       </c>
       <c r="B10" s="6">
-        <v>0.63888888888888795</v>
+        <v>0.69444444444444398</v>
       </c>
       <c r="C10" s="6">
         <f t="shared" si="0"/>
-        <v>0.36111111111111205</v>
+        <v>0.30555555555555602</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2"/>
@@ -2946,16 +3146,16 @@
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>0.97222222222222199</v>
       </c>
       <c r="B11" s="6">
-        <v>0.77777777777777701</v>
+        <v>0.63888888888888795</v>
       </c>
       <c r="C11" s="6">
         <f t="shared" si="0"/>
-        <v>0.19444444444444497</v>
+        <v>0.33333333333333404</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
@@ -2964,20 +3164,32 @@
         <v>14</v>
       </c>
       <c r="I11" s="8">
-        <v>10.705346151769465</v>
+        <v>15.83054955497745</v>
       </c>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
       <c r="H12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="8">
-        <v>1.0116899030317475E-6</v>
+        <v>3.5291927719792613E-8</v>
       </c>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
       <c r="H13" s="8" t="s">
         <v>16</v>
       </c>
@@ -2986,16 +3198,16 @@
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H14" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I14" s="8">
-        <v>2.0233798060634951E-6</v>
+        <v>7.0583855439585227E-8</v>
       </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H15" s="9" t="s">
         <v>18</v>
       </c>
@@ -3004,39 +3216,39 @@
       </c>
       <c r="J15" s="9"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3049,27 +3261,28 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3A3F0C-C3E2-4E4D-B618-BC26E5093D91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7EF8C36-7090-464D-AAB3-3C1E05473A40}">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:H18"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="8" max="8" width="25.88671875" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>2</v>
@@ -3080,19 +3293,19 @@
       </c>
       <c r="F1" s="7">
         <f>SUM(C2:C11)/10</f>
-        <v>0.16944444444444479</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.23055555555555601</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>0.77777777777777701</v>
+        <v>0.69444444444444398</v>
       </c>
       <c r="C2" s="6">
         <f>A2-B2</f>
-        <v>0.22222222222222299</v>
+        <v>0.30555555555555602</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="14" t="s">
@@ -3100,22 +3313,22 @@
       </c>
       <c r="F2" s="7">
         <f>STDEV(C2:C11)</f>
-        <v>4.6203610925461755E-2</v>
+        <v>6.8104353883086291E-2</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>0.86111111111111105</v>
+        <v>0.77777777777777701</v>
       </c>
       <c r="C3" s="6">
         <f t="shared" ref="C3:C11" si="0">A3-B3</f>
-        <v>0.13888888888888895</v>
+        <v>0.22222222222222299</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="14" t="s">
@@ -3123,19 +3336,19 @@
       </c>
       <c r="F3" s="6">
         <f xml:space="preserve"> F1/(F2/SQRT(10))</f>
-        <v>11.597153784597946</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>10.705346151769477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" s="6">
-        <v>0.75</v>
+        <v>0.72222222222222199</v>
       </c>
       <c r="C4" s="6">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.27777777777777801</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="14" t="s">
@@ -3149,10 +3362,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -3173,19 +3386,19 @@
         <v>0.99166666666666659</v>
       </c>
       <c r="J5" s="8">
-        <v>0.82222222222222174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.76111111111111052</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>0.97222222222222199</v>
       </c>
       <c r="B6" s="6">
-        <v>0.80555555555555503</v>
+        <v>0.77777777777777701</v>
       </c>
       <c r="C6" s="6">
         <f t="shared" si="0"/>
-        <v>0.16666666666666696</v>
+        <v>0.19444444444444497</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>
@@ -3197,19 +3410,19 @@
         <v>1.800411522633775E-4</v>
       </c>
       <c r="J6" s="8">
-        <v>2.0919067215363538E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>4.492455418381361E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>0.97222222222222199</v>
       </c>
       <c r="B7" s="6">
-        <v>0.86111111111111105</v>
+        <v>0.72222222222222199</v>
       </c>
       <c r="C7" s="6">
         <f t="shared" si="0"/>
-        <v>0.11111111111111094</v>
+        <v>0.25</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2"/>
@@ -3224,16 +3437,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>1</v>
       </c>
       <c r="B8" s="6">
-        <v>0.88888888888888795</v>
+        <v>0.86111111111111105</v>
       </c>
       <c r="C8" s="6">
         <f t="shared" si="0"/>
-        <v>0.11111111111111205</v>
+        <v>0.13888888888888895</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
@@ -3242,20 +3455,20 @@
         <v>12</v>
       </c>
       <c r="I8" s="8">
-        <v>0.11175975124542321</v>
+        <v>1.9065785593520783E-2</v>
       </c>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
       <c r="B9" s="6">
-        <v>0.86111111111111105</v>
+        <v>0.80555555555555503</v>
       </c>
       <c r="C9" s="6">
         <f t="shared" si="0"/>
-        <v>0.13888888888888895</v>
+        <v>0.19444444444444497</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2"/>
@@ -3268,16 +3481,16 @@
       </c>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>1</v>
       </c>
       <c r="B10" s="6">
-        <v>0.80555555555555503</v>
+        <v>0.63888888888888795</v>
       </c>
       <c r="C10" s="6">
         <f t="shared" si="0"/>
-        <v>0.19444444444444497</v>
+        <v>0.36111111111111205</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2"/>
@@ -3290,7 +3503,7 @@
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>0.97222222222222199</v>
       </c>
@@ -3308,20 +3521,20 @@
         <v>14</v>
       </c>
       <c r="I11" s="8">
-        <v>11.597153784597946</v>
+        <v>10.705346151769465</v>
       </c>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="8">
-        <v>5.1468894359161825E-7</v>
+        <v>1.0116899030317475E-6</v>
       </c>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H13" s="8" t="s">
         <v>16</v>
       </c>
@@ -3330,16 +3543,16 @@
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H14" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I14" s="8">
-        <v>1.0293778871832365E-6</v>
+        <v>2.0233798060634951E-6</v>
       </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H15" s="9" t="s">
         <v>18</v>
       </c>
@@ -3348,39 +3561,39 @@
       </c>
       <c r="J15" s="9"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3393,28 +3606,27 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F920CD64-38D7-4C34-AE1D-7F46FDF00FF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3A3F0C-C3E2-4E4D-B618-BC26E5093D91}">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:H18"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" customWidth="1"/>
-    <col min="8" max="8" width="25.21875" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>2</v>
@@ -3425,19 +3637,19 @@
       </c>
       <c r="F1" s="7">
         <f>SUM(C2:C11)/10</f>
-        <v>5.0000000000000419E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.16944444444444479</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>0.94444444444444398</v>
+        <v>0.77777777777777701</v>
       </c>
       <c r="C2" s="6">
         <f>A2-B2</f>
-        <v>5.5555555555556024E-2</v>
+        <v>0.22222222222222299</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="14" t="s">
@@ -3445,22 +3657,22 @@
       </c>
       <c r="F2" s="7">
         <f>STDEV(C2:C11)</f>
-        <v>3.6571143811354935E-2</v>
+        <v>4.6203610925461755E-2</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>0.91666666666666596</v>
+        <v>0.86111111111111105</v>
       </c>
       <c r="C3" s="6">
         <f t="shared" ref="C3:C11" si="0">A3-B3</f>
-        <v>8.3333333333334036E-2</v>
+        <v>0.13888888888888895</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="14" t="s">
@@ -3468,19 +3680,19 @@
       </c>
       <c r="F3" s="6">
         <f xml:space="preserve"> F1/(F2/SQRT(10))</f>
-        <v>4.3234601527373524</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>11.597153784597946</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" s="6">
-        <v>0.94444444444444398</v>
+        <v>0.75</v>
       </c>
       <c r="C4" s="6">
         <f t="shared" si="0"/>
-        <v>5.5555555555556024E-2</v>
+        <v>0.25</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="14" t="s">
@@ -3494,19 +3706,19 @@
         <v>0</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1</v>
       </c>
       <c r="B5" s="6">
-        <v>1</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="C5" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16666666666666696</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2"/>
@@ -3518,19 +3730,19 @@
         <v>0.99166666666666659</v>
       </c>
       <c r="J5" s="8">
-        <v>0.9416666666666661</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.82222222222222174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>0.97222222222222199</v>
       </c>
       <c r="B6" s="6">
-        <v>0.94444444444444398</v>
+        <v>0.80555555555555503</v>
       </c>
       <c r="C6" s="6">
         <f t="shared" si="0"/>
-        <v>2.7777777777778012E-2</v>
+        <v>0.16666666666666696</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>
@@ -3542,19 +3754,19 @@
         <v>1.800411522633775E-4</v>
       </c>
       <c r="J6" s="8">
-        <v>1.6203703703703979E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.0919067215363538E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>0.97222222222222199</v>
       </c>
       <c r="B7" s="6">
-        <v>0.91666666666666596</v>
+        <v>0.86111111111111105</v>
       </c>
       <c r="C7" s="6">
         <f t="shared" si="0"/>
-        <v>5.5555555555556024E-2</v>
+        <v>0.11111111111111094</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2"/>
@@ -3569,16 +3781,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>1</v>
       </c>
       <c r="B8" s="6">
-        <v>1</v>
+        <v>0.88888888888888795</v>
       </c>
       <c r="C8" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.11111111111111205</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
@@ -3587,20 +3799,20 @@
         <v>12</v>
       </c>
       <c r="I8" s="8">
-        <v>0.4285714285714286</v>
+        <v>0.11175975124542321</v>
       </c>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
       <c r="B9" s="6">
-        <v>0.88888888888888795</v>
+        <v>0.86111111111111105</v>
       </c>
       <c r="C9" s="6">
         <f t="shared" si="0"/>
-        <v>0.11111111111111205</v>
+        <v>0.13888888888888895</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2"/>
@@ -3613,16 +3825,16 @@
       </c>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>1</v>
       </c>
       <c r="B10" s="6">
-        <v>0.97222222222222199</v>
+        <v>0.80555555555555503</v>
       </c>
       <c r="C10" s="6">
         <f t="shared" si="0"/>
-        <v>2.7777777777778012E-2</v>
+        <v>0.19444444444444497</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2"/>
@@ -3635,16 +3847,16 @@
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>0.97222222222222199</v>
       </c>
       <c r="B11" s="6">
-        <v>0.88888888888888795</v>
+        <v>0.77777777777777701</v>
       </c>
       <c r="C11" s="6">
         <f t="shared" si="0"/>
-        <v>8.3333333333334036E-2</v>
+        <v>0.19444444444444497</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
@@ -3653,20 +3865,20 @@
         <v>14</v>
       </c>
       <c r="I11" s="8">
-        <v>4.3234601527373524</v>
+        <v>11.597153784597946</v>
       </c>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="8">
-        <v>9.6170586141448324E-4</v>
+        <v>5.1468894359161825E-7</v>
       </c>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H13" s="8" t="s">
         <v>16</v>
       </c>
@@ -3675,16 +3887,16 @@
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H14" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I14" s="8">
-        <v>1.9234117228289665E-3</v>
+        <v>1.0293778871832365E-6</v>
       </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H15" s="9" t="s">
         <v>18</v>
       </c>
@@ -3693,39 +3905,39 @@
       </c>
       <c r="J15" s="9"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
